--- a/2_OOP/Data/teambuilding_activiteiten.xlsx
+++ b/2_OOP/Data/teambuilding_activiteiten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="384" yWindow="384" windowWidth="17460" windowHeight="11952" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="1008" windowWidth="17460" windowHeight="11952" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,18 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -41,7 +33,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -49,30 +41,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -454,32 +428,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>deelnemer_naam</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>activiteit</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>locatie</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>kostprijs</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>lunch</t>
         </is>
@@ -1005,7 +979,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Wanlin</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1033,7 +1007,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Wanlin</t>
         </is>
       </c>
       <c r="E21" t="n">

--- a/2_OOP/Data/teambuilding_activiteiten.xlsx
+++ b/2_OOP/Data/teambuilding_activiteiten.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,81 +461,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deelnemer 7</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Boogschieten</t>
+          <t>Lopen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Goes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>444</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>ja</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deelnemer 17</t>
+          <t>Deelnemer 30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Boogschieten</t>
+          <t>Speleologie</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Aalst</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deelnemer 27</t>
+          <t>Deelnemer 5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Boogschieten</t>
+          <t>Paintball</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Wanlin</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -545,137 +545,137 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deelnemer 2</t>
+          <t>Deelnemer 15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Escape Room</t>
+          <t>Paintball</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Antwerpen</t>
+          <t>Wanlin</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deelnemer 12</t>
+          <t>Deelnemer 9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Escape Room</t>
+          <t>Zeilworkshop</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Antwerpen</t>
+          <t>Turnhout</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deelnemer 22</t>
+          <t>Deelnemer 19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Escape Room</t>
+          <t>Zeilworkshop</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Antwerpen</t>
+          <t>Turnhout</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Deelnemer 4</t>
+          <t>Deelnemer 29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fietstocht</t>
+          <t>Zeilworkshop</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Turnhout</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deelnemer 14</t>
+          <t>Deelnemer 6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fietstocht</t>
+          <t>Kajakken</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Hasselt</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -685,25 +685,25 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deelnemer 24</t>
+          <t>Deelnemer 16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fietstocht</t>
+          <t>Kajakken</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Hasselt</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -713,11 +713,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Deelnemer 6</t>
+          <t>Deelnemer 26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -741,81 +741,81 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Deelnemer 16</t>
+          <t>Deelnemer 7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kajakken</t>
+          <t>Boogschieten</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hasselt</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Deelnemer 26</t>
+          <t>Deelnemer 17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kajakken</t>
+          <t>Boogschieten</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hasselt</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Deelnemer 1</t>
+          <t>Deelnemer 27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Klimmen</t>
+          <t>Boogschieten</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -825,193 +825,193 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Deelnemer 11</t>
+          <t>Deelnemer 2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Klimmen</t>
+          <t>Escape Room</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deelnemer 21</t>
+          <t>Deelnemer 12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Klimmen</t>
+          <t>Escape Room</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Deelnemer 3</t>
+          <t>Deelnemer 22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kookworkshop</t>
+          <t>Escape Room</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brugge</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Deelnemer 13</t>
+          <t>Deelnemer 8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kookworkshop</t>
+          <t>Wandeltocht</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brugge</t>
+          <t>Oostende</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deelnemer 23</t>
+          <t>Deelnemer 18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kookworkshop</t>
+          <t>Wandeltocht</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brugge</t>
+          <t>Oostende</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Deelnemer 5</t>
+          <t>Deelnemer 28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Paintball</t>
+          <t>Wandeltocht</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wanlin</t>
+          <t>Oostende</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Deelnemer 15</t>
+          <t>Deelnemer 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Paintball</t>
+          <t>Klimmen</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wanlin</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1021,137 +1021,137 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deelnemer 30</t>
+          <t>Deelnemer 11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Speleologie</t>
+          <t>Klimmen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aalst</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Deelnemer 8</t>
+          <t>Deelnemer 21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wandeltocht</t>
+          <t>Klimmen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deelnemer 18</t>
+          <t>Deelnemer 3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wandeltocht</t>
+          <t>Kookworkshop</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Brugge</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Deelnemer 28</t>
+          <t>Deelnemer 13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wandeltocht</t>
+          <t>Kookworkshop</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Brugge</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nee</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Deelnemer 9</t>
+          <t>Deelnemer 23</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Zeilworkshop</t>
+          <t>Kookworkshop</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Turnhout</t>
+          <t>Brugge</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1161,85 +1161,113 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Deelnemer 19</t>
+          <t>Deelnemer 4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Zeilworkshop</t>
+          <t>Fietstocht</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Turnhout</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Deelnemer 29</t>
+          <t>Deelnemer 14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Zeilworkshop</t>
+          <t>Fietstocht</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Turnhout</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nee</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Deelnemer 24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lopen</t>
+          <t>Fietstocht</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Goes</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>444</v>
+        <v>15</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jaap</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kano</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wanlin</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>253</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nee</t>
         </is>
       </c>
     </row>
